--- a/StructureDefinition-hc-communication.xlsx
+++ b/StructureDefinition-hc-communication.xlsx
@@ -685,7 +685,7 @@
     <t>Communication.recipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://healthconnect.institute//StructureDefinition/hc-practitioner|https://healthconnect.institute//StructureDefinition/hc-care-team|Patient)
+    <t xml:space="preserve">Reference(https://healthconnect.institute/StructureDefinition/hc-practitioner|https://healthconnect.institute/StructureDefinition/hc-care-team|Patient)
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>Communication.sender</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://healthconnect.institute//StructureDefinition/hc-practitioner)
+    <t xml:space="preserve">Reference(https://healthconnect.institute/StructureDefinition/hc-practitioner)
 </t>
   </si>
   <si>
@@ -767,7 +767,7 @@
 </t>
   </si>
   <si>
-    <t>Message payload</t>
+    <t>Textpayload and attachments</t>
   </si>
   <si>
     <t>Text, attachment(s), or resource(s) that was communicated to the recipient.</t>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>48</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>41</v>
